--- a/Utils/FileOp2.xlsx
+++ b/Utils/FileOp2.xlsx
@@ -16,53 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>john@test.com</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Bob Smith</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>jacky@example.com</t>
-  </si>
-  <si>
-    <t>Swapnil</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>swapnil@example.com</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,74 +331,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Utils/FileOp2.xlsx
+++ b/Utils/FileOp2.xlsx
@@ -16,6 +16,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>john@test.com</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>jacky@example.com</t>
+  </si>
+  <si>
+    <t>Swapnil</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>swapnil@example.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +378,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>